--- a/UI用データ.xlsx
+++ b/UI用データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/co/Documents/BOC/Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C75D0E-D4AE-454D-A4A5-492E98B5BE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43556F5F-3294-5C49-8026-E5F9E5420BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{047440CC-4B6E-6B44-9F50-FF86FE245497}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{047440CC-4B6E-6B44-9F50-FF86FE245497}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>ASIN</t>
   </si>
@@ -153,9 +153,6 @@
     <t>B0B5WDYGN1</t>
   </si>
   <si>
-    <t>【Amazon.co.jp限定】【医薬部外品】モイストラボ BBエッセンスクリーム (ナチュラルベージュ) 30g SPF50 PA++++ (高保湿/毛穴カバー) 日本製</t>
-  </si>
-  <si>
     <t>日本初! ※シワ改善できるBBクリーム誕生※「モイストラボ BBエッセンスクリーム/薬用美白BBクリーム」は、発売されているシワ改善効能の医薬部外品において、日本で初めてのBBクリーム。(2020年12月1日時点 当社調べ)</t>
   </si>
   <si>
@@ -405,16 +402,6 @@
   </si>
   <si>
     <t>食品・飲料・お酒-惣菜・チルド食品</t>
-  </si>
-  <si>
-    <t>タイトル提案1_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル提案1_2</t>
-  </si>
-  <si>
-    <t>タイトル提案1_3</t>
   </si>
   <si>
     <t>箇条書き説明提案1_1</t>
@@ -447,196 +434,434 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>説明文提案1_1</t>
+    <t>タイトル提案1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル提案2</t>
+  </si>
+  <si>
+    <t>タイトル提案3</t>
+  </si>
+  <si>
+    <t>プロメニスタドゥボヌール オールインワン BBクリーム 化粧下地 日焼け止め SPF50 PA+++ 簡単メイク 時短 カバー力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロメニスタドゥボヌール BBクリーム 日焼け止め SPF50 PA+++ 化粧崩れ防止 保湿 トーンアップ 6つの効果</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロメニスタドゥボヌール オールインワン BBクリーム 化粧下地 紫外線カット 肌バリア コンシーラー 透明感 アンチホワイト技術</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uchipac お肉惣菜3個セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 保存料 着色料 無添加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uchipac 常温保存 長期保存可能 魚惣菜 保存料不使用 国産素材 無添加 健康志向 食べ応えあり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uchipac お惣菜セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 家庭料理風 優しい味 やわらか食感</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル_入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル_プロンプト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル_出力</t>
+    <rPh sb="5" eb="7">
+      <t>シュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自社商品タイトル、説明文</t>
+    <rPh sb="0" eb="4">
+      <t>ジセィア</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自社商品の説明から、単語単位で分割したものにする。
+                - 例）最大30日保存が可能な、新鮮な食材 → 新鮮食材　長期間保存可能　・・・　・・・　・・・
+を満たすようなSEO意識した単語で区切ったタイトル案を3つ生成してください。もう少し単語数増やして、スペースで区切るようにしてください。また、元のタイトルにある必要不可欠な部分は全ての提案に対して入れるようにしてください。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自社商品の説明から、単語単位で分割したものにする。
+                - 例）最大30日保存が可能な、新鮮な食材 → 新鮮食材　長期間保存可能　・・・　・・・　・・・
+を満たすようなSEO意識した単語で区切ったタイトル案を4つ生成してください。もう少し単語数増やして、スペースで区切るようにしてください。また、元のタイトルにある必要不可欠な部分は全ての提案に対して入れるようにしてください。</t>
+  </si>
+  <si>
+    <t>プロメニスタドゥボヌール オールインワン BBクリーム 化粧下地 日焼け止め
+タイトル案 1: プロメニスタドゥボヌール オールインワン BBクリーム 化粧下地 日焼け止め SPF50 PA+++ 簡単メイク 時短 カバー力
+タイトル案 2: プロメニスタドゥボヌール BBクリーム 日焼け止め SPF50 PA+++ 化粧崩れ防止 保湿 トーンアップ 6つの効果
+タイトル案 3: プロメニスタドゥボヌール オールインワン BBクリーム 化粧下地 紫外線カット 肌バリア コンシーラー 透明感 アンチホワイト技術
+タイトル案 1: 日焼け止め SPF50 PA+++ / 化粧下地・時短メイク
+タイトル案 2: 簡単メイク・6つの効果 / 肌バリア・保湿 / トーンアップ
+タイトル案 3: コンシーラー機能・カバー力 / アンチホワイト技術・透明感肌</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【お肉惣菜3個セット】uchipac レトルトおかず 魚惣菜 保存料 無添加 長期保存
+タイトル案 1: uchipac お肉惣菜3個セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 保存料 着色料 無添加
+タイトル案 2: uchipac 常温保存 長期保存可能 魚惣菜 保存料不使用 国産素材 無添加 健康志向 食べ応えあり
+タイトル案 3: uchipac お惣菜セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 家庭料理風 優しい味 やわらか食感</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【Amazon.co.jp限定】【医薬部外品】モイストラボ BBエッセンスクリーム (ナチュラルベージュ) 30g SPF50 PA++++ (高保湿/毛穴カバー) 日本製</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自社製品訴求軸</t>
+    <rPh sb="0" eb="4">
+      <t>ジセィア</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ソキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>競合訴求軸</t>
+    <rPh sb="0" eb="2">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日焼け止め効果: SPF50/PA+++で紫外線をカット
+化粧崩れ防止: 肌バリアを強化し、汗やマスク擦れを防止
+カバー力: コンシーラー機能でシミやくすみをカバー
+トーンアップ: 光拡散技術で肌を明るく見せる
+保湿成分: 水溶性コラーゲンやヒアルロン酸などでしっとり肌を保つ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高保湿・しっとり感: 長時間潤いを保ち、肌をしっとりさせる
+ウォータープルーフ: 汗・水に強い長持ち処方</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【SPF50/PA+++の紫外線カット】一年中しっかりと紫外線から肌を守り、日焼けによるシミ・そばかすを防ぎます。
+【化粧崩れ防止の肌バリア】汗やマスクによる肌トラブルを軽減し、化粧崩れを防ぎます。
+【しっかりカバー力】コンシーラー機能で、シミ・くすみ・隈を自然にカバーします。
+【トーンアップで明るい肌】独自技術で光を拡散し、肌の明るさを2段階アップさせます。
+【保湿力抜群】ヒアルロン酸や水溶性コラーゲン配合で、肌にしっとりとした潤いを与えます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【紫外線をカットし日焼け対策】SPF50/PA+++で強い日差しから肌を保護。シミ・そばかすの原因を防ぎます。
+【化粧崩れ知らずの肌】汗に強い処方で長時間崩れにくく、日常のマスク生活にも対応。
+【隠したい部分をカバー】しっかり密着してくれるコンシーラー効果で、気になる肌悩みを自然にカバー。
+【肌が明るく見えるトーンアップ】肌に輝きを与える光拡散技術で、明るく美しい肌を演出。
+【保湿成分で乾燥を防ぐ】ヒアルロン酸やコラーゲンなどの保湿成分が肌を乾燥から守り、うるおいを保ちます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【高い紫外線防御力】SPF50/PA+++で、紫外線から肌をしっかり守り、日焼け対策も万全です。
+【ウォータープルーフ効果】汗・水に強い処方で化粧崩れしにくく、長時間美しい仕上がりをキープします。
+【気になる部分をしっかりカバー】隠したい部分にピタッと密着し、自然なカバー力で肌を美しく整えます。
+【ツヤ肌に導くトーンアップ】光を拡散させる技術で、肌にツヤと明るさをプラスし、若々しい印象に。
+【たっぷり保湿で乾燥知らず】コラーゲンやヒアルロン酸などの美容成分が肌をしっかり保湿し、乾燥から守ります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自社商品タイトル、自社商品説明、競合タイトル、競合説明（2つ分）</t>
+    <rPh sb="0" eb="2">
+      <t>ジセィア</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒn</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>ジセィア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自社商品タイトル、自社商品説明、競合タイトル、競合説明（3つ分）</t>
+    <rPh sb="0" eb="2">
+      <t>ジセィア</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウヒn</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>ジセィア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まず、プロメニスタドゥボヌール オールインワン BBクリームの訴求軸をリストアップし、それに基づいて箇条書き説明を生成します。
+Step 1: 訴求軸のリストアップ
+自社商品の訴求軸
+日焼け止め効果: SPF50/PA+++で紫外線をカット
+化粧崩れ防止: 肌バリアを強化し、汗やマスク擦れを防止
+カバー力: コンシーラー機能でシミやくすみをカバー
+トーンアップ: 光拡散技術で肌を明るく見せる
+保湿成分: 水溶性コラーゲンやヒアルロン酸などでしっとり肌を保つ
+他社商品からの追加訴求軸
+高保湿・しっとり感: 長時間潤いを保ち、肌をしっとりさせる
+ウォータープルーフ: 汗・水に強い長持ち処方
+Step 2: 訴求軸に基づいた箇条書き説明の生成
+タイトル「プロメニスタドゥボヌール オールインワン BBクリーム」箇条書き説明（3パターン）
+パターン 1
+【SPF50/PA+++の紫外線カット】一年中しっかりと紫外線から肌を守り、日焼けによるシミ・そばかすを防ぎます。
+【化粧崩れ防止の肌バリア】汗やマスクによる肌トラブルを軽減し、化粧崩れを防ぎます。
+【しっかりカバー力】コンシーラー機能で、シミ・くすみ・隈を自然にカバーします。
+【トーンアップで明るい肌】独自技術で光を拡散し、肌の明るさを2段階アップさせます。
+【保湿力抜群】ヒアルロン酸や水溶性コラーゲン配合で、肌にしっとりとした潤いを与えます。
+パターン 2
+【紫外線をカットし日焼け対策】SPF50/PA+++で強い日差しから肌を保護。シミ・そばかすの原因を防ぎます。
+【化粧崩れ知らずの肌】汗に強い処方で長時間崩れにくく、日常のマスク生活にも対応。
+【隠したい部分をカバー】しっかり密着してくれるコンシーラー効果で、気になる肌悩みを自然にカバー。
+【肌が明るく見えるトーンアップ】肌に輝きを与える光拡散技術で、明るく美しい肌を演出。
+【保湿成分で乾燥を防ぐ】ヒアルロン酸やコラーゲンなどの保湿成分が肌を乾燥から守り、うるおいを保ちます。
+パターン 3
+【高い紫外線防御力】SPF50/PA+++で、紫外線から肌をしっかり守り、日焼け対策も万全です。
+【ウォータープルーフ効果】汗・水に強い処方で化粧崩れしにくく、長時間美しい仕上がりをキープします。
+【気になる部分をしっかりカバー】隠したい部分にピタッと密着し、自然なカバー力で肌を美しく整えます。
+【ツヤ肌に導くトーンアップ】光を拡散させる技術で、肌にツヤと明るさをプラスし、若々しい印象に。
+【たっぷり保湿で乾燥知らず】コラーゲンやヒアルロン酸などの美容成分が肌をしっかり保湿し、乾燥から守ります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amazonでは説明文が2つ存在しています。
+ 1つが箇条書き説明です。　例としては炭酸泡で2パターン　無添加で2パターンなど。言及する訴求軸で複数パターン作る。
+        - 箇条書き一つは150文字程度
+        - 先頭の部分は頭かぎかっこする。例：【汚れを吸着するモッチモチ炭酸泡】〜
+　　- 5個生成したい
+1. 訴求軸を列挙する
+    1. 自社のこの商品について
+        訴求可能な軸をリストアップ
+    2. 他社のこの商品について
+        1.でリストアップされなかったが、競合が訴求しているかつ自社の商品も持っている訴求可能軸をリストアップ。
+2.訴求軸に沿って箇条書き説明を生成
+5個を一案として3パターンくらいあると良い。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amazonでは説明文が2つ存在しています。
+ 1つが箇条書き説明です。　例としては炭酸泡で2パターン　無添加で2パターンなど。言及する訴求軸で複数パターン作る。
+        - 箇条書き一つは150文字程度
+        - 先頭の部分は頭かぎかっこする。例：【汚れを吸着するモッチモチ炭酸泡】〜
+　　- 5個生成したい
+1. 訴求軸を列挙する
+    1. 自社のこの商品について
+        訴求可能な軸をリストアップ
+    2. 他社のこの商品について
+        1.でリストアップされなかったが、競合が訴求しているかつ自社の商品も持っている訴求可能軸をリストアップ。
+2.訴求軸に沿って箇条書き説明を生成
+5個を一案として4パターンくらいあると良い。</t>
+  </si>
+  <si>
+    <t>無添加・保存料不使用: 添加物を使用せず、素材本来の味を活かしている
+常温保存可能: 常温で長期保存でき、利便性が高い
+調理の手軽さ: レンジで簡単に調理可能、時短になる
+健康志向の家庭料理: 家庭の優しい味を再現し、健康を意識した内容
+バラエティ豊かな惣菜: ハンバーグ、豚角煮、照り焼きチキンと豊富なメニュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存性の高さ: 非常食としての備蓄が可能で、賞味期限も長い
+日本産の食材使用: 国産素材を使用している点を強調</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【無添加の安心お惣菜】保存料・着色料を一切使用せず、素材本来の味を生かした健康志向のお惣菜です。
+【常温保存で長期保存可能】常温での保存が可能で、忙しい毎日に便利。非常食としても活躍します。
+【レンジで簡単調理】開封してレンジで1分、温かく美味しい家庭料理がすぐに楽しめます。
+【バラエティ豊かなメニュー】ハンバーグ、豚角煮、照り焼きチキンと、様々な味わいを楽しめます。
+【国産素材を使用】国産の野菜や厳選された調味料を使用した、安心・安全な商品です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【家庭の優しい味を再現】お母さんが作ったような優しい味わいで、無添加にこだわったお惣菜です。
+【1年の長期保存が可能】常温保存で長持ちし、災害時や忙しい日のための備蓄としてもおすすめ。
+【手軽に本格惣菜】温めるだけで簡単に本格的な惣菜が楽しめ、家族皆で美味しくいただけます。
+【手作り感あふれる製法】一つ一つ手作業で作られた、安心の家庭風お惣菜です。
+【栄養たっぷり】豆腐入りハンバーグや豚角煮など、食べ応えのある一品がそろっています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【健康を考えた無添加惣菜】保存料・着色料を使用せず、素材の旨味を活かした手作り惣菜です。
+【長期保存・常温保存対応】冷蔵不要で、日持ちが良いので常備食としてもおすすめです。
+【簡単調理で時短】電子レンジで1分加熱するだけで、すぐに食べられる手軽さが魅力です。
+【内野家の秘伝の味】特製ソースで味付けされた、ハンバーグや豚角煮など家庭の味を再現。
+【安心の国産素材】野菜や調味料に国産素材を使用し、家族が安心して食べられる品質です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下に、【お肉惣菜3個セット】uchipac レトルトおかずに基づく訴求軸をリストアップし、箇条書き説明を生成しました。
+Step 1: 訴求軸のリストアップ
+自社商品の訴求軸
+無添加・保存料不使用: 添加物を使用せず、素材本来の味を活かしている
+常温保存可能: 常温で長期保存でき、利便性が高い
+調理の手軽さ: レンジで簡単に調理可能、時短になる
+健康志向の家庭料理: 家庭の優しい味を再現し、健康を意識した内容
+バラエティ豊かな惣菜: ハンバーグ、豚角煮、照り焼きチキンと豊富なメニュー
+他社商品からの追加訴求軸
+保存性の高さ: 非常食としての備蓄が可能で、賞味期限も長い
+日本産の食材使用: 国産素材を使用している点を強調
+Step 2: 訴求軸に基づいた箇条書き説明の生成
+タイトル「【お肉惣菜3個セット】uchipac レトルトおかず」箇条書き説明（3パターン）
+パターン 1
+【無添加の安心お惣菜】保存料・着色料を一切使用せず、素材本来の味を生かした健康志向のお惣菜です。
+【常温保存で長期保存可能】常温での保存が可能で、忙しい毎日に便利。非常食としても活躍します。
+【レンジで簡単調理】開封してレンジで1分、温かく美味しい家庭料理がすぐに楽しめます。
+【バラエティ豊かなメニュー】ハンバーグ、豚角煮、照り焼きチキンと、様々な味わいを楽しめます。
+【国産素材を使用】国産の野菜や厳選された調味料を使用した、安心・安全な商品です。
+パターン 2
+【家庭の優しい味を再現】お母さんが作ったような優しい味わいで、無添加にこだわったお惣菜です。
+【1年の長期保存が可能】常温保存で長持ちし、災害時や忙しい日のための備蓄としてもおすすめ。
+【手軽に本格惣菜】温めるだけで簡単に本格的な惣菜が楽しめ、家族皆で美味しくいただけます。
+【手作り感あふれる製法】一つ一つ手作業で作られた、安心の家庭風お惣菜です。
+【栄養たっぷり】豆腐入りハンバーグや豚角煮など、食べ応えのある一品がそろっています。
+パターン 3
+【健康を考えた無添加惣菜】保存料・着色料を使用せず、素材の旨味を活かした手作り惣菜です。
+【長期保存・常温保存対応】冷蔵不要で、日持ちが良いので常備食としてもおすすめです。
+【簡単調理で時短】電子レンジで1分加熱するだけで、すぐに食べられる手軽さが魅力です。
+【内野家の秘伝の味】特製ソースで味付けされた、ハンバーグや豚角煮など家庭の味を再現。
+【安心の国産素材】野菜や調味料に国産素材を使用し、家族が安心して食べられる品質です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明文提案1</t>
     <rPh sb="0" eb="5">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>説明文提案1_2</t>
+    <t>説明文提案2</t>
     <rPh sb="0" eb="5">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>説明文提案1_3</t>
+    <t>説明文提案3</t>
     <rPh sb="0" eb="5">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル提案2_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル提案2_2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル提案2_3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>箇条書き説明提案2_1</t>
+    <t>プロメニスタドゥボヌールのオールインワンBBクリームは、忙しい朝でも素早く完成する時短メイクに最適です。SPF50/PA+++の紫外線カット効果で、一年を通して肌をしっかり保護。化粧崩れ防止処方により、汗やマスクによる肌荒れを防ぎ、一日中美しい仕上がりが続きます。さらに、独自の光拡散技術が肌の明るさを2段階アップし、輝くツヤ肌に仕上げます。保湿成分も豊富に配合されているため、乾燥しがちな肌にもうるおいを与え、しっとりとした質感を保ちます。肌のくすみやシミも自然にカバーでき、ナチュラルな美しさを引き出す一品です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このオールインワンBBクリームは、化粧下地、コンシーラー、ファンデーション、日焼け止めの機能を1本に集約し、朝のメイク時間を大幅に短縮します。SPF50/PA+++の高い紫外線防御力で、シミやそばかすを防ぎ、長時間の日差しから肌を保護します。化粧崩れを防ぐ肌バリア効果で、汗や皮脂にも強く、清潔感のある仕上がりをキープ。保湿成分としてヒアルロン酸や水溶性コラーゲンを配合し、乾燥を防ぎながらふっくらとした肌に導きます。忙しい女性にとって、素早く美しく仕上がる理想のBBクリームです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プロメニスタドゥボヌールのBBクリームは、朝の時短メイクにぴったりのオールインワンアイテムです。高SPF50/PA+++でしっかりと紫外線から肌を守り、シミ・くすみの予防にも効果的。化粧崩れを防止する特殊処方が施され、汗や湿度にも強く、美しい仕上がりを保ちます。また、光を拡散させるトーンアップ技術で、肌の明るさが自然に増し、健康的でツヤのある素肌感を演出。保湿成分もたっぷり含まれているので、肌の乾燥を防ぎ、柔らかくしっとりとした質感を保ちます。忙しい毎日でも美しさを維持できる優れたアイテムです。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uchipacの【お肉惣菜3個セット】は、忙しい毎日にも手軽に家庭の味が楽しめる、無添加にこだわったレトルトお惣菜です。保存料・着色料を一切使用せず、自然な美味しさをそのまま閉じ込めました。常温保存が可能で、賞味期限も半年～1年と長期保存が可能。ハンバーグ、豚角煮、照り焼きチキンの3種類がセットになっており、電子レンジで温めるだけで簡単に楽しめます。国産素材を使用し、ヘルシーで栄養豊富な内容が家族にも安心です。食べたいときにすぐ温かいお惣菜が楽しめる、このセットが日常の食卓を豊かにします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">この【お肉惣菜3個セット】は、uchipacのこだわりを詰め込んだ常温保存が可能な惣菜シリーズです。保存料や着色料を使用せず、手間暇かけて丁寧に作り上げたハンバーグ、豚角煮、照り焼きチキンの3種類が楽しめます。レンジで簡単に温めるだけで、家庭の味をそのまま再現。無添加調味料を使用し、国産素材を大切に使っているため、栄養バランスも安心。忙しい日や非常食としてもぴったりで、食卓に彩りと安心を提供します。uchipacの惣菜セットで、手軽で美味しい食事時間をお楽しみください。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">uchipacの【お肉惣菜3個セット】は、家庭での安心・安全な食事を提供するために作られた、無添加のレトルトお惣菜です。ハンバーグ、豚角煮、照り焼きチキンの3種がセットになっており、それぞれ丁寧に味付けされています。常温保存可能で長期保存が可能なため、非常食としての備蓄にも適しています。調理が簡単で、電子レンジで1分温めるだけで出来立てのような温かい料理が楽しめます。国産の厳選素材と手作りのような製法にこだわり、家族全員で安心して楽しめる一品です。毎日の食事をさらに豊かにする、健康志向の方にもおすすめのセットです。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箇条書き説明_入力</t>
     <rPh sb="0" eb="3">
       <t>カジョウ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>箇条書き説明提案2_2</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箇条書き説明_プロンプト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箇条書き説明_出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明文_入力</t>
     <rPh sb="0" eb="3">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>箇条書き説明提案2_3</t>
-    <rPh sb="0" eb="3">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>説明文提案2_1</t>
-    <rPh sb="0" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>説明文提案2_2</t>
-    <rPh sb="0" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>説明文提案2_3</t>
-    <rPh sb="0" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日焼け防止＆保湿！プロメニスタ BBクリームで簡単メイク</t>
-  </si>
-  <si>
-    <t>オールインワンBBクリーム - SPFと保湿で1日中美肌キープ</t>
-  </si>
-  <si>
-    <t>プロメニスタドゥボヌール BBクリーム - 簡単に美肌仕上げ</t>
-  </si>
-  <si>
-    <t>SPF50+で日中も安心！プロメニスタ オールインワンBBクリーム</t>
-  </si>
-  <si>
-    <t>プロメニスタ - しっとり保湿で一日中肌を守るBBクリーム</t>
-  </si>
-  <si>
-    <t>2分で美肌完成！UVケアと保湿効果が自慢のBBクリーム</t>
-  </si>
-  <si>
-    <t>SPFによる強力な紫外線カットで肌を守る</t>
-  </si>
-  <si>
-    <t>保湿成分配合で、長時間しっとり感をキープ</t>
-  </si>
-  <si>
-    <t>簡単に使えるオールインワンタイプ、忙しい朝にも最適</t>
-  </si>
-  <si>
-    <t>高SPFで紫外線から肌をしっかりガード</t>
-  </si>
-  <si>
-    <t>保湿とスキンケア効果で美肌をサポート</t>
-  </si>
-  <si>
-    <t>手軽に使えるBBクリームで、ファッション感覚のメイク</t>
-  </si>
-  <si>
-    <t>プロメニスタのオールインワンBBクリームは、SPFによる紫外線対策と保湿効果を兼ね備えています。簡単に美肌を作り上げることができ、忙しい朝や外出先でも便利です。</t>
-  </si>
-  <si>
-    <t>このBBクリームは、SPFで日焼けを防ぎながら肌をしっとり保ちます。保湿成分たっぷりで、1日中心地よい使い心地を提供します。</t>
-  </si>
-  <si>
-    <t>日焼け止めと化粧下地が一つになったプロメニスタ BBクリーム。忙しい日も簡単に肌を整え、自然な仕上がりでメイクを楽しめます。</t>
-  </si>
-  <si>
-    <t>SPF効果が高く、日中の紫外線から肌を守るプロメニスタのBBクリーム。2分で素早く仕上がり、男女問わず使用可能なアイテムです。</t>
-  </si>
-  <si>
-    <t>日焼けを防ぐ高いSPFと、保湿成分をバランスよく配合。肌に優しい処方で、普段使いにも適したBBクリームです。</t>
-  </si>
-  <si>
-    <t>プロメニスタのBBクリームは、簡単に肌を整え、紫外線から守る頼れるアイテム。しっとり感とナチュラルな仕上がりで、毎日快適に使えます。</t>
-  </si>
-  <si>
-    <t>常温で長期保存！uchipac 魚惣菜とお肉惣菜セット</t>
-  </si>
-  <si>
-    <t>お肉惣菜3個セット - 保存食にも最適なレトルトおかず</t>
-  </si>
-  <si>
-    <t>uchipac 魚とお肉の惣菜セット - 常温で簡単に楽しめる！</t>
-  </si>
-  <si>
-    <t>常温で保存でき、非常時の備蓄食としても活用できる</t>
-  </si>
-  <si>
-    <t>豆腐入りハンバーグを含むヘルシーな3種類のおかず</t>
-  </si>
-  <si>
-    <t>調理不要、開封してすぐに食べられる手軽さ</t>
-  </si>
-  <si>
-    <t>uchipacのお肉惣菜3個セットは、長期保存が可能な常温保存レトルトです。豆腐入りのハンバーグや魚惣菜が入っており、非常時の備蓄にもぴったりです。</t>
-  </si>
-  <si>
-    <t>忙しい日や非常時にも、簡単に食べられる惣菜セットです。開封するだけでそのまま食べられ、保存食としても安心してお使いいただけます。</t>
-  </si>
-  <si>
-    <t>長期保存ができる常温惣菜セット。uchipacの惣菜は、健康を意識した内容で、災害時や忙しい日の食事に適しています。</t>
-  </si>
-  <si>
-    <t>非常食にもおすすめ！常温保存のuchipac 魚惣菜セット</t>
-  </si>
-  <si>
-    <t>uchipac レトルトおかず - 長期保存可能なお肉惣菜3個セット</t>
-  </si>
-  <si>
-    <t>保存食としても安心のuchipac 魚＆お肉惣菜セット</t>
-  </si>
-  <si>
-    <t>賞味期限が長く、非常時に備えた保存食としても最適</t>
-  </si>
-  <si>
-    <t>豆腐入りハンバーグなど健康を意識したおかずを提供</t>
-  </si>
-  <si>
-    <t>温めずそのまま食べられる、便利なレトルトおかず</t>
-  </si>
-  <si>
-    <t>保存食としても優れたuchipacのお肉惣菜セット。常温保存が可能で、豆腐入りハンバーグなど健康を意識した内容を手軽に楽しめます。</t>
-  </si>
-  <si>
-    <t>uchipacのレトルトおかずは、簡単に食べられる保存食としてもおすすめです。長期保存が可能で、災害時の備えとしてもぴったりです。</t>
-  </si>
-  <si>
-    <t>長期保存に対応したuchipacの惣菜セットは、豆腐入りのヘルシーなハンバーグなど、普段の食事にも非常食にも活躍する常温保存可能な商品です。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明文_プロンプト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明文_出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最後に、2つの説明のうちのもう一つである長い説明を書いてください。2商品に対して3案ずつ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最後に、2つの説明のうちのもう一つである長い説明を書いてください。2商品に対して4案ずつ。</t>
+  </si>
+  <si>
+    <t>以上が、2つの商品に対する3案の長い説明文です。それぞれの特徴や強みを強調し、SEOを意識しつつも内容が豊かな説明文にしています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以上が、2つの商品に対する4案の長い説明文です。それぞれの特徴や強みを強調し、SEOを意識しつつも内容が豊かな説明文にしています。</t>
   </si>
 </sst>
 </file>
@@ -710,13 +935,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,15 +1281,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1125912-46FE-674C-8A88-B784581EE867}">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="X3" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,115 +1321,121 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>43</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>48</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>49</v>
       </c>
       <c r="AB1" t="s">
         <v>8</v>
       </c>
       <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>75</v>
-      </c>
       <c r="AN1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AO1" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AP1" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AQ1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AR1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AS1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AT1" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48" ht="409.6">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,13 +1455,13 @@
         <v>229350</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1">
         <v>1162</v>
@@ -1239,25 +1473,25 @@
         <v>3987984</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="T2" s="1">
         <v>1980</v>
@@ -1269,77 +1503,83 @@
         <v>4670820</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AC2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AL2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AM2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>100</v>
+      <c r="AU2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48" ht="409.6">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,13 +1599,13 @@
         <v>30240</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J3" s="1">
         <v>1656</v>
@@ -1377,25 +1617,25 @@
         <v>1896120</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="T3" s="1">
         <v>13000</v>
@@ -1407,76 +1647,82 @@
         <v>22906000</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AC3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AN3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AN3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>118</v>
+      <c r="AT3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/UI用データ.xlsx
+++ b/UI用データ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/co/Documents/BOC/Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43556F5F-3294-5C49-8026-E5F9E5420BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9146CB-C20D-944C-9B9E-8C9147FEF536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{047440CC-4B6E-6B44-9F50-FF86FE245497}"/>
   </bookViews>
@@ -36,45 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="155">
   <si>
     <t>ASIN</t>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明文</t>
     <rPh sb="0" eb="3">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>価格</t>
     <rPh sb="0" eb="2">
       <t>カカク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>カテゴリ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合ASIN</t>
     <rPh sb="0" eb="2">
       <t>キョウゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合タイトル</t>
     <rPh sb="0" eb="2">
       <t>キョウゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合価格</t>
@@ -84,11 +84,11 @@
     <rPh sb="2" eb="4">
       <t>カカク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>販売個数</t>
@@ -106,23 +106,6 @@
     <t>2分で簡単メイク。日焼け止め強化した化粧下地タイプのオールインワンBBクリーム。 これ1本で化粧下地が完了し、時間に追われている朝の忙しい生活の中でも、簡単・短時間・綺麗な手抜きメイクに見えない仕上がりを追求。6つの効果により時短メイクをサポートします。 ①［日焼け止め］ カテゴリー最強のSPF50/PA+++を実現。1年を通して紫外線から肌を守り、日焼けによるシミ・そばかすを防ぎます。紫外線吸着剤は不使用で、肌にも優しくなっています。白塗りにならないアンチホワイト技術採用。 ②［化粧崩れ防止（肌バリア）］ 化粧崩れ防止処方を採用し、汗による化粧崩れをしっかり防止すると共に、日常的に装着するマスクによる肌擦れ、肌荒れや、花粉や大気中の粉じんから肌を守ります。 ③［カバー］ ピタッと肌にしっかり広がるコンシーラー機能で、シミやくすみ、隈を目立たなくします。 ④［補正］ ファンデーションをクリーム化したことで、小じわや肌トラブルの色目を補正し、目立たなくさせ、しっとりとした透明感のある肌に仕上げます。 ⑤【トーンアップ】　 独自技術で光を拡散させ肌の明るさを2段階アップし、お肌を白く輝くツヤ肌に仕上げます。 ⑥［保湿］ 乳液・クリーム剤に配合されている保湿成分「水溶性コラーゲン」「ヒアルロン酸」「ヒメフウロエキス」「アマチャズル葉エキス」「アーチチョーク葉エキス」などの保湿成分をしっかり配合し、肌の保湿力を高めて、モチ肌を作ります。 【ご使用方法】 化粧水などでお肌を整えた後、適量を指に取り、スポンジパフ又は指でお顔全体にムラなく伸ばしてください。</t>
   </si>
   <si>
-    <r>
-      <t>https://www.amazon.co.jp/Promenista-BONHEUR-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>オールインワン-BBクリーム-プロメニスタ/dp/B0B1HGCDSP?th=1</t>
-    </r>
-  </si>
-  <si>
     <t>B0D4LZVHVJ</t>
   </si>
   <si>
@@ -130,24 +113,7 @@
   </si>
   <si>
     <t>【お肉惣菜3個セット】 【常温・長期保存可】uchipac レトルトおかず 魚惣菜（ハンバーグ、豚角煮、照り焼きチキン）お惣菜 保存料 着色料 無添加 常温保存 賞味期限 半年～1年</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>https://www.amazon.co.jp/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【お肉惣菜3個セット】-【常温・長期保存可】uchipac-レトルトおかず-魚惣菜（ハンバーグ、豚角煮、照り焼きチキン）お惣菜-半年～1年/dp/B0D4LZVHVJ?th=1</t>
-    </r>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>B0B5WDYGN1</t>
@@ -178,7 +144,7 @@
     <rPh sb="4" eb="6">
       <t>コスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合説明文1</t>
@@ -188,7 +154,7 @@
     <rPh sb="2" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合説明文2</t>
@@ -198,7 +164,7 @@
     <rPh sb="2" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合説明文3</t>
@@ -208,7 +174,7 @@
     <rPh sb="2" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合説明文4</t>
@@ -218,7 +184,7 @@
     <rPh sb="2" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合説明文5</t>
@@ -228,7 +194,7 @@
     <rPh sb="2" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合売上</t>
@@ -238,7 +204,7 @@
     <rPh sb="2" eb="4">
       <t>ウリアゲ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>B09ML8LLQ3</t>
@@ -266,14 +232,14 @@
     <rPh sb="0" eb="2">
       <t>キョウゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2タイトル</t>
     <rPh sb="0" eb="2">
       <t>キョウゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2価格</t>
@@ -283,7 +249,7 @@
     <rPh sb="3" eb="5">
       <t>カカク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2販売個数</t>
@@ -296,7 +262,7 @@
     <rPh sb="5" eb="7">
       <t>コスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2売上</t>
@@ -306,7 +272,7 @@
     <rPh sb="3" eb="5">
       <t>ウリアゲ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2説明文1</t>
@@ -316,7 +282,7 @@
     <rPh sb="3" eb="6">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2説明文2</t>
@@ -326,7 +292,7 @@
     <rPh sb="3" eb="6">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2説明文3</t>
@@ -336,7 +302,7 @@
     <rPh sb="3" eb="6">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2説明文4</t>
@@ -346,7 +312,7 @@
     <rPh sb="3" eb="6">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合2説明文5</t>
@@ -356,7 +322,7 @@
     <rPh sb="3" eb="6">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>B0D545Z7VT</t>
@@ -404,38 +370,8 @@
     <t>食品・飲料・お酒-惣菜・チルド食品</t>
   </si>
   <si>
-    <t>箇条書き説明提案1_1</t>
-    <rPh sb="0" eb="3">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>箇条書き説明提案1_2</t>
-    <rPh sb="0" eb="3">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>箇条書き説明提案1_3</t>
-    <rPh sb="0" eb="3">
-      <t>カジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイアn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル提案1</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タイトル提案2</t>
@@ -445,45 +381,45 @@
   </si>
   <si>
     <t>プロメニスタドゥボヌール オールインワン BBクリーム 化粧下地 日焼け止め SPF50 PA+++ 簡単メイク 時短 カバー力</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プロメニスタドゥボヌール BBクリーム 日焼け止め SPF50 PA+++ 化粧崩れ防止 保湿 トーンアップ 6つの効果</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プロメニスタドゥボヌール オールインワン BBクリーム 化粧下地 紫外線カット 肌バリア コンシーラー 透明感 アンチホワイト技術</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>uchipac お肉惣菜3個セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 保存料 着色料 無添加</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>uchipac 常温保存 長期保存可能 魚惣菜 保存料不使用 国産素材 無添加 健康志向 食べ応えあり</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>uchipac お惣菜セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 家庭料理風 優しい味 やわらか食感</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タイトル_入力</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タイトル_プロンプト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タイトル_出力</t>
     <rPh sb="5" eb="7">
       <t>シュテゥ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自社商品タイトル、説明文</t>
@@ -493,13 +429,13 @@
     <rPh sb="9" eb="12">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自社商品の説明から、単語単位で分割したものにする。
                 - 例）最大30日保存が可能な、新鮮な食材 → 新鮮食材　長期間保存可能　・・・　・・・　・・・
 を満たすようなSEO意識した単語で区切ったタイトル案を3つ生成してください。もう少し単語数増やして、スペースで区切るようにしてください。また、元のタイトルにある必要不可欠な部分は全ての提案に対して入れるようにしてください。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自社商品の説明から、単語単位で分割したものにする。
@@ -514,18 +450,18 @@
 タイトル案 1: 日焼け止め SPF50 PA+++ / 化粧下地・時短メイク
 タイトル案 2: 簡単メイク・6つの効果 / 肌バリア・保湿 / トーンアップ
 タイトル案 3: コンシーラー機能・カバー力 / アンチホワイト技術・透明感肌</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【お肉惣菜3個セット】uchipac レトルトおかず 魚惣菜 保存料 無添加 長期保存
 タイトル案 1: uchipac お肉惣菜3個セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 保存料 着色料 無添加
 タイトル案 2: uchipac 常温保存 長期保存可能 魚惣菜 保存料不使用 国産素材 無添加 健康志向 食べ応えあり
 タイトル案 3: uchipac お惣菜セット レトルトおかず ハンバーグ 豚角煮 照り焼きチキン 家庭料理風 優しい味 やわらか食感</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【Amazon.co.jp限定】【医薬部外品】モイストラボ BBエッセンスクリーム (ナチュラルベージュ) 30g SPF50 PA++++ (高保湿/毛穴カバー) 日本製</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自社製品訴求軸</t>
@@ -535,7 +471,7 @@
     <rPh sb="4" eb="7">
       <t>ソキュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>競合訴求軸</t>
@@ -545,20 +481,7 @@
     <rPh sb="2" eb="5">
       <t>ソキュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日焼け止め効果: SPF50/PA+++で紫外線をカット
-化粧崩れ防止: 肌バリアを強化し、汗やマスク擦れを防止
-カバー力: コンシーラー機能でシミやくすみをカバー
-トーンアップ: 光拡散技術で肌を明るく見せる
-保湿成分: 水溶性コラーゲンやヒアルロン酸などでしっとり肌を保つ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>高保湿・しっとり感: 長時間潤いを保ち、肌をしっとりさせる
-ウォータープルーフ: 汗・水に強い長持ち処方</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【SPF50/PA+++の紫外線カット】一年中しっかりと紫外線から肌を守り、日焼けによるシミ・そばかすを防ぎます。
@@ -566,7 +489,7 @@
 【しっかりカバー力】コンシーラー機能で、シミ・くすみ・隈を自然にカバーします。
 【トーンアップで明るい肌】独自技術で光を拡散し、肌の明るさを2段階アップさせます。
 【保湿力抜群】ヒアルロン酸や水溶性コラーゲン配合で、肌にしっとりとした潤いを与えます。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【紫外線をカットし日焼け対策】SPF50/PA+++で強い日差しから肌を保護。シミ・そばかすの原因を防ぎます。
@@ -574,7 +497,7 @@
 【隠したい部分をカバー】しっかり密着してくれるコンシーラー効果で、気になる肌悩みを自然にカバー。
 【肌が明るく見えるトーンアップ】肌に輝きを与える光拡散技術で、明るく美しい肌を演出。
 【保湿成分で乾燥を防ぐ】ヒアルロン酸やコラーゲンなどの保湿成分が肌を乾燥から守り、うるおいを保ちます。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【高い紫外線防御力】SPF50/PA+++で、紫外線から肌をしっかり守り、日焼け対策も万全です。
@@ -582,7 +505,7 @@
 【気になる部分をしっかりカバー】隠したい部分にピタッと密着し、自然なカバー力で肌を美しく整えます。
 【ツヤ肌に導くトーンアップ】光を拡散させる技術で、肌にツヤと明るさをプラスし、若々しい印象に。
 【たっぷり保湿で乾燥知らず】コラーゲンやヒアルロン酸などの美容成分が肌をしっかり保湿し、乾燥から守ります。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自社商品タイトル、自社商品説明、競合タイトル、競合説明（2つ分）</t>
@@ -604,29 +527,7 @@
     <rPh sb="25" eb="27">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自社商品タイトル、自社商品説明、競合タイトル、競合説明（3つ分）</t>
-    <rPh sb="0" eb="2">
-      <t>ジセィア</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウヒn</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>ジセィア</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キョウゴウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>まず、プロメニスタドゥボヌール オールインワン BBクリームの訴求軸をリストアップし、それに基づいて箇条書き説明を生成します。
@@ -660,7 +561,7 @@
 【気になる部分をしっかりカバー】隠したい部分にピタッと密着し、自然なカバー力で肌を美しく整えます。
 【ツヤ肌に導くトーンアップ】光を拡散させる技術で、肌にツヤと明るさをプラスし、若々しい印象に。
 【たっぷり保湿で乾燥知らず】コラーゲンやヒアルロン酸などの美容成分が肌をしっかり保湿し、乾燥から守ります。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Amazonでは説明文が2つ存在しています。
@@ -675,7 +576,7 @@
         1.でリストアップされなかったが、競合が訴求しているかつ自社の商品も持っている訴求可能軸をリストアップ。
 2.訴求軸に沿って箇条書き説明を生成
 5個を一案として3パターンくらいあると良い。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Amazonでは説明文が2つ存在しています。
@@ -692,25 +593,12 @@
 5個を一案として4パターンくらいあると良い。</t>
   </si>
   <si>
-    <t>無添加・保存料不使用: 添加物を使用せず、素材本来の味を活かしている
-常温保存可能: 常温で長期保存でき、利便性が高い
-調理の手軽さ: レンジで簡単に調理可能、時短になる
-健康志向の家庭料理: 家庭の優しい味を再現し、健康を意識した内容
-バラエティ豊かな惣菜: ハンバーグ、豚角煮、照り焼きチキンと豊富なメニュー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>保存性の高さ: 非常食としての備蓄が可能で、賞味期限も長い
-日本産の食材使用: 国産素材を使用している点を強調</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【無添加の安心お惣菜】保存料・着色料を一切使用せず、素材本来の味を生かした健康志向のお惣菜です。
 【常温保存で長期保存可能】常温での保存が可能で、忙しい毎日に便利。非常食としても活躍します。
 【レンジで簡単調理】開封してレンジで1分、温かく美味しい家庭料理がすぐに楽しめます。
 【バラエティ豊かなメニュー】ハンバーグ、豚角煮、照り焼きチキンと、様々な味わいを楽しめます。
 【国産素材を使用】国産の野菜や厳選された調味料を使用した、安心・安全な商品です。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【家庭の優しい味を再現】お母さんが作ったような優しい味わいで、無添加にこだわったお惣菜です。
@@ -718,7 +606,7 @@
 【手軽に本格惣菜】温めるだけで簡単に本格的な惣菜が楽しめ、家族皆で美味しくいただけます。
 【手作り感あふれる製法】一つ一つ手作業で作られた、安心の家庭風お惣菜です。
 【栄養たっぷり】豆腐入りハンバーグや豚角煮など、食べ応えのある一品がそろっています。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【健康を考えた無添加惣菜】保存料・着色料を使用せず、素材の旨味を活かした手作り惣菜です。
@@ -726,7 +614,7 @@
 【簡単調理で時短】電子レンジで1分加熱するだけで、すぐに食べられる手軽さが魅力です。
 【内野家の秘伝の味】特製ソースで味付けされた、ハンバーグや豚角煮など家庭の味を再現。
 【安心の国産素材】野菜や調味料に国産素材を使用し、家族が安心して食べられる品質です。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>以下に、【お肉惣菜3個セット】uchipac レトルトおかずに基づく訴求軸をリストアップし、箇条書き説明を生成しました。
@@ -760,55 +648,55 @@
 【簡単調理で時短】電子レンジで1分加熱するだけで、すぐに食べられる手軽さが魅力です。
 【内野家の秘伝の味】特製ソースで味付けされた、ハンバーグや豚角煮など家庭の味を再現。
 【安心の国産素材】野菜や調味料に国産素材を使用し、家族が安心して食べられる品質です。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明文提案1</t>
     <rPh sb="0" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明文提案2</t>
     <rPh sb="0" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明文提案3</t>
     <rPh sb="0" eb="5">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プロメニスタドゥボヌールのオールインワンBBクリームは、忙しい朝でも素早く完成する時短メイクに最適です。SPF50/PA+++の紫外線カット効果で、一年を通して肌をしっかり保護。化粧崩れ防止処方により、汗やマスクによる肌荒れを防ぎ、一日中美しい仕上がりが続きます。さらに、独自の光拡散技術が肌の明るさを2段階アップし、輝くツヤ肌に仕上げます。保湿成分も豊富に配合されているため、乾燥しがちな肌にもうるおいを与え、しっとりとした質感を保ちます。肌のくすみやシミも自然にカバーでき、ナチュラルな美しさを引き出す一品です。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>このオールインワンBBクリームは、化粧下地、コンシーラー、ファンデーション、日焼け止めの機能を1本に集約し、朝のメイク時間を大幅に短縮します。SPF50/PA+++の高い紫外線防御力で、シミやそばかすを防ぎ、長時間の日差しから肌を保護します。化粧崩れを防ぐ肌バリア効果で、汗や皮脂にも強く、清潔感のある仕上がりをキープ。保湿成分としてヒアルロン酸や水溶性コラーゲンを配合し、乾燥を防ぎながらふっくらとした肌に導きます。忙しい女性にとって、素早く美しく仕上がる理想のBBクリームです。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">プロメニスタドゥボヌールのBBクリームは、朝の時短メイクにぴったりのオールインワンアイテムです。高SPF50/PA+++でしっかりと紫外線から肌を守り、シミ・くすみの予防にも効果的。化粧崩れを防止する特殊処方が施され、汗や湿度にも強く、美しい仕上がりを保ちます。また、光を拡散させるトーンアップ技術で、肌の明るさが自然に増し、健康的でツヤのある素肌感を演出。保湿成分もたっぷり含まれているので、肌の乾燥を防ぎ、柔らかくしっとりとした質感を保ちます。忙しい毎日でも美しさを維持できる優れたアイテムです。
 </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>uchipacの【お肉惣菜3個セット】は、忙しい毎日にも手軽に家庭の味が楽しめる、無添加にこだわったレトルトお惣菜です。保存料・着色料を一切使用せず、自然な美味しさをそのまま閉じ込めました。常温保存が可能で、賞味期限も半年～1年と長期保存が可能。ハンバーグ、豚角煮、照り焼きチキンの3種類がセットになっており、電子レンジで温めるだけで簡単に楽しめます。国産素材を使用し、ヘルシーで栄養豊富な内容が家族にも安心です。食べたいときにすぐ温かいお惣菜が楽しめる、このセットが日常の食卓を豊かにします。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">この【お肉惣菜3個セット】は、uchipacのこだわりを詰め込んだ常温保存が可能な惣菜シリーズです。保存料や着色料を使用せず、手間暇かけて丁寧に作り上げたハンバーグ、豚角煮、照り焼きチキンの3種類が楽しめます。レンジで簡単に温めるだけで、家庭の味をそのまま再現。無添加調味料を使用し、国産素材を大切に使っているため、栄養バランスも安心。忙しい日や非常食としてもぴったりで、食卓に彩りと安心を提供します。uchipacの惣菜セットで、手軽で美味しい食事時間をお楽しみください。
 </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">uchipacの【お肉惣菜3個セット】は、家庭での安心・安全な食事を提供するために作られた、無添加のレトルトお惣菜です。ハンバーグ、豚角煮、照り焼きチキンの3種がセットになっており、それぞれ丁寧に味付けされています。常温保存可能で長期保存が可能なため、非常食としての備蓄にも適しています。調理が簡単で、電子レンジで1分温めるだけで出来立てのような温かい料理が楽しめます。国産の厳選素材と手作りのような製法にこだわり、家族全員で安心して楽しめる一品です。毎日の食事をさらに豊かにする、健康志向の方にもおすすめのセットです。
 </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>箇条書き説明_入力</t>
@@ -818,18 +706,18 @@
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>箇条書き説明_プロンプト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>箇条書き説明_出力</t>
     <rPh sb="0" eb="2">
       <t>シュテゥ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明文_入力</t>
@@ -839,49 +727,280 @@
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明文_プロンプト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明文_出力</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>最後に、2つの説明のうちのもう一つである長い説明を書いてください。2商品に対して3案ずつ。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>最後に、2つの説明のうちのもう一つである長い説明を書いてください。2商品に対して4案ずつ。</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>以上が、2つの商品に対する3案の長い説明文です。それぞれの特徴や強みを強調し、SEOを意識しつつも内容が豊かな説明文にしています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以上が、2つの商品に対する4案の長い説明文です。それぞれの特徴や強みを強調し、SEOを意識しつつも内容が豊かな説明文にしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箇条書き説明提案1</t>
+    <rPh sb="0" eb="3">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箇条書き説明提案2</t>
+    <rPh sb="0" eb="3">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箇条書き説明提案3</t>
+    <rPh sb="0" eb="3">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箇条書き説明提案4</t>
+    <rPh sb="0" eb="3">
+      <t>カジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイアn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【汚れを吸着するモッチモチ炭酸泡】モッチリとした炭酸泡が毛穴に入り込み、肌に溜まった汚れや不要な皮脂をしっかり吸着。優しい洗浄力で肌に負担をかけず、洗い上がりはさっぱりとしつつ、しっとりとした潤いを保ちます。毎日の洗顔に最適です。
+【無添加処方で肌に優しい】合成香料やパラベン、鉱物油などの成分を含まない無添加処方で、敏感肌や乾燥肌の方にも安心して使用できる成分設計。肌をいたわりつつ、毎日使えるスキンケアアイテムとして高い人気を誇ります。
+【保湿成分配合でしっとり仕上げ】「ヒアルロン酸」や「コラーゲン」など、保湿成分を豊富に配合し、洗顔後の乾燥を防いでしっとりとした肌をキープ。朝の化粧ノリが良くなると好評で、乾燥が気になる方にもおすすめです。
+【UVカットで日中も安心】SPF50/PA+++の高い紫外線防止機能があり、日中の肌を紫外線から守ります。日焼けによるシミ・そばかすの原因から肌を保護し、白浮きせず自然な美しい肌に仕上げるので毎日の外出にぴったりです。
+【化粧下地としても活躍】化粧下地、BBクリーム、日焼け止めの3つの機能を1本で実現。忙しい朝でもサッと使える時短メイクアイテムとして便利で、肌に溶け込むように馴染み、ベースメイクがこれ一本で完成します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【じっくり煮込んだ豆腐入りハンバーグ】豆腐入りでヘルシーながらも食べ応え抜群のハンバーグ。厳選した無添加調味料を使い、特製オリジナルソースで昔ながらの優しい味に仕上げています。冷めても美味しいのでお弁当にもぴったりです。
+【味が染み込んだ豚の角煮】秘伝のタレでじっくり煮込んだ豚バラ肉は、驚くほど柔らかく、旨味がしっかりと染み込んだ本格的な角煮に。常温保存が可能で、食卓に手軽に並べられる一品。忙しい日のおかずにも最適です。
+【柔らか照り焼きチキン】鶏モモ肉を秘伝のタレにじっくり漬け込んだ照り焼きチキン。程よい甘辛さがご飯に合い、お子様にも人気です。食べ応えがあり、忙しい日のメインディッシュやお弁当のおかずとしても楽しめます。
+【保存料・着色料無添加で安心】化学調味料や保存料、着色料は一切使用せず、自然素材で仕上げた体に優しい惣菜です。素材そのものの美味しさを大切にし、家族全員で安心して召し上がっていただける一品です。
+【真空パックで鮮度を保持】出来立ての美味しさを保つため、全て真空パックで密封されています。長期間の常温保存が可能で、防災用備蓄や忙しい日々の保存食としても便利です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B08GC2ZCQ5</t>
+  </si>
+  <si>
+    <t>アールオム ツブウォッシュは酵素の粒で洗う男のエステ洗顔。炭、クレイ配合で汚れをしっかり吸着し、ベタつき、ザラつき、毛穴汚れの目立たない清潔感ある肌へ導きます。加齢とともに目立つ男性特有の肌の「べたつき・テカリ」。強力な洗浄成分で洗いすぎると、必要なうるおいまで根こそぎ奪われ、さらにバリア機能が乱れることで肌トラブルを悪化させる原因にもなります。40代以降の男性の洗顔は、厚くなった角質をやわらげながら肌に負担をかけない洗浄成分でやさしく汚れを落としてあげることが必要です。酵素の「ほぐれる粒」は、固くなった男肌を柔らかくし、⽪脂汚れや⽑⽳の奥につまった汚れをスッキリ落とします。また、粒をなじませ洗い流すだけの時短洗顔で忙しい朝でもサッと使えるので習慣化しやすいです。酵素・炭・クレイを皮膚を保護するオイル成分で包み込み、顆粒化する技術を採用し、この顆粒は通常のスクラブと異なり、水を含むと溶ける性質があるため、 刺激や肌ダメージを防ぎます。</t>
+  </si>
+  <si>
+    <t>R_homme (アールオム) メンズ 酵素洗顔 ツブウォッシュ 45g 60回分 単品 ( 酵素洗顔パウダー / 毛穴 洗顔 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビューティー-スキンケア・ボディケア-スキンケア・基礎化粧品-洗顔-洗顔料-洗顔パウダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B091PJNLCB</t>
+  </si>
+  <si>
+    <t>ファンケル (FANCL) ディープクリア 洗顔パウダー (30個入り) 洗顔 無添加 (毛穴/黒ずみ) 酵素洗顔 洗顔料 環境配慮型パッケージ</t>
+  </si>
+  <si>
+    <t>【毛穴汚れ・黒ずみ・角栓をオフする酵素洗顔】毛穴の汚れ・黒ずみ・角栓を一気にオフして、うるつる肌に洗い上げる酵素洗顔料。炭とクレイを配合したパウダーが、肌をやさしく包み込むクッション泡に早変わり。うるおいを守りながら汚れを絡め取り、つっぱらずにスッキリ毛穴を実感できます。使い続けるほど、毛穴汚れの目立たない肌に。使い切りポーションタイプ。※泡立てネットを使うと、簡単にもっちり泡が作れます。※環境に配慮し、外装をプラケースからFSC認証紙の化粧箱へと切り替えました。それに伴い、商品番号を変更いたしました。中身に変更はございません。</t>
+  </si>
+  <si>
+    <t>【使用順序】クレンジング　⇒　ディープクリア洗顔パウダー　⇒　化粧液　⇒　エッセンス　⇒　マスク　⇒　乳液</t>
+  </si>
+  <si>
+    <t>【使用量／使用日数／フレッシュ期間】1個／30個入り：30日分（1日1回、朝晩いずれか使用）／開封後／すぐに使用　未開封／3年以内　※防腐剤・香料・合成色素・石油系界面活性剤・紫外線吸収剤を一切使っていません。※製造年月日入。</t>
+  </si>
+  <si>
+    <t>【全成分】ココイルグリシンＫ、マンニトール、（ヤシ脂肪酸／パーム脂肪酸／ヒマワリ脂肪酸）グルタミン酸Ｎａ、ＰＥＧ－７５、デキストリン、プルラン、ラウロイルグルタミン酸Ｎａ、ミリスチン酸Ｎａ、カンテン、パイロフェライト、ミリスチン酸Ｋ、ヒドロキシプロピルデンプンリン酸、α－グルカン、タルク、石英、ラウリン酸Ｎａ、ベヘニルアルコール、ラウリン酸Ｋ、プロテアーゼ、炭、ヒアルロン酸Ｎａ、シリカ、パルミチン酸Ｎａ、コーンスターチ、ステアリン酸、パルミチン酸Ｋ、ラウリン酸、ヒドロキシプロピルメチルセルロース、グリセリン、アラントイン、リン酸２Ｎａ、リン酸Ｋ、酸化鉄</t>
+  </si>
+  <si>
+    <t>B0831M4M3B</t>
+  </si>
+  <si>
+    <t>suisai(スイサイ) スイサイ ビューティクリア パウダーウォッシュN 酵素洗顔 洗顔パウダー 単品 0.4g×32個 【毛穴】【黒ずみ】【汚れ】【角栓】【ザラつき】【古い角質 ケア】</t>
+  </si>
+  <si>
+    <t>内容量:0.4g(1回分)×32個</t>
+  </si>
+  <si>
+    <t>ブラント名:suisai(スイサイ)</t>
+  </si>
+  <si>
+    <t>うるおい守って透明感UP</t>
+  </si>
+  <si>
+    <t>香料フリー・着色料フリー</t>
+  </si>
+  <si>
+    <t>【こんな方におすすめ】毛穴の黒ずみ汚れ・角栓が気になる方に</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/Promenista-BONHEUR-オールインワン-BBクリーム-プロメニスタ/dp/B0B1HGCDSP?th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.jp/【お肉惣菜3個セット】-【常温・長期保存可】uchipac-レトルトおかず-魚惣菜（ハンバーグ、豚角煮、照り焼きチキン）お惣菜-半年～1年/dp/B0D4LZVHVJ?th=1</t>
+  </si>
+  <si>
+    <r>
+      <t>https://www.amazon.co.jp/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>アールオム-ツブウォッシュ-約60回分-つっぱらない-肌にやさしい/dp/B08GC2ZCQ5?th=1</t>
+    </r>
+  </si>
+  <si>
+    <t>R_homme メンズ 酵素洗顔 ツブウォッシュ 45g 60回分 炭 クレイ配合 男性専用 毛穴ケア 清潔感 男性肌のためのやさしい洗顔パウダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R_homme メンズ 洗顔 酵素パウダー 45g 60回分 毛穴 汚れ吸着 炭 クレイ配合 男性肌 エステ級 清潔感時短洗顔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アールオム 酵素洗顔 メンズ 洗顔パウダー 60回分 毛穴ケア 炭とクレイで汚れ吸着 男性専用 肌に優しい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下に、SEOを意識して単語単位で区切り、元のタイトルに必要不可欠な要素を含めたタイトル案を3つ作成しました。
+R_homme メンズ 酵素洗顔 ツブウォッシュ 45g 60回分 炭 クレイ配合 男性専用 毛穴ケア 清潔感 男性肌のためのやさしい洗顔パウダー
+R_homme メンズ 洗顔 酵素パウダー 45g 60回分 毛穴 汚れ吸着 炭 クレイ配合 男性肌 エステ級 清潔感時短洗顔
+アールオム 酵素洗顔 メンズ 洗顔パウダー 60回分 毛穴ケア 炭とクレイで汚れ吸着 男性専用 肌に優しい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【毛穴汚れをスッキリ吸着】炭とクレイのダブル成分が毛穴の奥に入り込み、頑固な汚れや皮脂をしっかり吸着。清潔感ある滑らかな肌へ導きます。
+【酵素の力で肌を柔らかく】酵素の粒子が硬くなった肌をやさしくほぐし、古い角質を取り除いてくれます。これで滑らかで明るい肌に仕上げます。
+【保湿成分で肌に優しい】炭とクレイで汚れを落としながらも、必要な潤いはそのまま。乾燥しやすい肌でも、つっぱり感なく洗い上げます。
+【毎日の時短ケアに最適】水に溶けやすい顆粒タイプなので、忙しい朝でも手軽にスピーディーな洗顔が可能。毎日のルーチンに取り入れやすいです。
+【無添加で肌に優しい処方】パラベンや鉱物油不使用で、敏感肌や乾燥肌の方にも安心してご使用いただけます。毎日気軽に使える安全設計です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【炭とクレイで毛穴ケア】炭とクレイが毛穴の奥に潜む汚れを効果的に除去し、肌の表面を滑らかに整えます。清潔感ある肌へと導きます。
+【酵素粒でエステ洗顔】細かな酵素の粒子が古い角質や皮脂汚れを優しく除去。肌をいたわりながら、スッキリとした洗い上がりを実感いただけます。
+【余分な皮脂をオフ】男性特有のべたつきやテカリを抑え、さらさらとした健康的な肌に。洗浄後も乾燥せず潤いを保ちます。
+【時短で清潔肌に】泡立て不要の顆粒洗顔パウダーは、洗い流すだけの簡単ケア。忙しい日常でも続けやすく、手軽に清潔な肌を保てます。
+【無添加処方で安心】パラベンフリーで、添加物に頼らない優しい処方。刺激を抑えて、肌に優しく、毎日のケアにも安心して使用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【頑固な汚れを吸着】炭とクレイが毛穴奥の皮脂汚れをしっかりキャッチし、黒ずみや角栓が気になる肌を明るく整えます。健やかな印象の肌へ。
+【酵素洗顔で角質ケア】酵素の粒が硬くなった肌を柔らかくほぐし、古い角質を取り除きます。ザラつきのない滑らかで明るい肌を実感いただけます。
+【潤いを守る洗浄】必要な水分は残しながらも、汚れだけをしっかり落とす保湿成分入り。乾燥による肌荒れを防ぎ、しっとりとした肌に仕上げます。
+【忙しい朝にも最適】水に溶けやすい設計で泡立てる必要がなく、時短でさっぱり洗顔が可能。忙しいライフスタイルにもぴったりです。
+【肌に優しい無添加処方】合成香料や鉱物油不使用で、肌への負担を軽減。敏感肌や乾燥が気になる方も安心して使用できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【炭とクレイで毛穴汚れをしっかり吸着】 炭とクレイが配合されており、毛穴奥の皮脂や黒ずみ汚れまでしっかり吸着。洗顔後の肌はスッキリとし、清潔感ある仕上がりを実感できます。ベタつきがちな肌にも、爽やかさと透明感をもたらします。
+【酵素の粒子で角質を優しくケア】 酵素の力で硬くなった角質を柔らかくほぐし、毛穴に詰まった汚れもすっきり洗い流します。肌のごわつきが気になる方や、角質ケアをしたい方に最適です。古い角質を除去し、滑らかで明るい肌に導きます。
+【必要な潤いを守りながら汚れを除去】 強すぎない洗浄成分で、肌に必要な潤いを残しながら、余分な皮脂や汚れを除去。洗顔後の肌のつっぱり感がなく、しっとりとした感触が長続きします。乾燥が気になる方にもおすすめの優しい処方です。
+【時短で使える泡立て不要の簡単洗顔】 粒状パウダーが水に溶けてすぐに使用できるため、泡立て不要で朝の忙しい時間にも最適です。手早くしっかり洗えるので、毎日の習慣として使いやすく、持続的にケアが可能です。
+【敏感肌にも優しい無添加処方】 パラベンや鉱物油など刺激成分を使用せず、敏感肌や乾燥しがちな肌にもやさしく働きかけます。毎日安心して使用できるため、デイリーケアとして肌のコンディションを整える助けとなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下に「R_homme メンズ 酵素洗顔 ツブウォッシュ」に関する訴求軸を自社商品と競合商品それぞれから抽出しました。これらをもとに箇条書き説明を構成しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R_hommeの「ツブウォッシュ」は、忙しい毎日でも清潔感あふれる肌を目指す男性のための酵素洗顔パウダーです。炭とクレイが、毛穴の奥に潜む汚れや皮脂、黒ずみを吸着し、肌に透明感をもたらします。また、酵素の粒が角質を柔らかくし、古い角質や角栓も効果的に除去。毎日のケアで、ざらつきやテカリを抑え、健康的でなめらかな肌に導きます。さらに、必要な潤いを守りながら余分な汚れだけを落とすため、洗顔後もつっぱり感がなく、しっとり感が続きます。パラベンフリー、無鉱物油のやさしい処方で、敏感肌にも安心してお使いいただけます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">酵素の力で男肌の悩みを根本からケアする「ツブウォッシュ」は、毛穴汚れやべたつき、ザラつきが気になる方におすすめのメンズ洗顔パウダーです。炭とクレイが毛穴の奥の頑固な汚れまでしっかり吸着し、スッキリとした洗い上がりを実現。さらに、酵素の粒が角質を柔らかくほぐし、肌の奥に詰まった古い角質や角栓を効果的に除去します。厚くなった角質を取り除くことで、スムーズで明るい肌がよみがえり、毎日のお手入れで清潔感をキープできます。泡立て不要で簡単に使えるため、朝の忙しい時間にも手軽に習慣化可能です。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">R_hommeの「ツブウォッシュ」は、酵素、炭、クレイといった天然成分でしっかり洗浄しながらも、肌にやさしい無添加のメンズ洗顔パウダーです。毛穴の奥に潜む汚れや黒ずみ、皮脂をしっかり吸着する炭とクレイが、清潔で健康的な肌を目指します。また、酵素の粒子が硬化した角質を柔らかくして落とし、肌のごわつきやザラつきを解消。潤いを残しながら洗浄することで、洗顔後もつっぱり感がなく、しっとりとした肌触りが持続します。さらに、パラベンや鉱物油などの刺激成分を使用せず、敏感肌の方にも安心してご利用いただけます。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上が、商品に対する3案の長い説明文です。それぞれの特徴や強みを強調し、SEOを意識しつつも内容が豊かな説明文にしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日焼け止め効果: 
+化粧崩れ防止: 
+カバー力: 
+トーンアップ: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">無添加・保存料不使用: 
+常温保存可能: 
+調理の手軽さ: 
+健康志向の家庭料理: 
+バラエティ豊かな惣菜: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">毛穴汚れの吸着力:
+酵素による角質ケア:
+時短で手軽に使える:
+無添加の優しさ:
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">高保湿・しっとり感: 
+ウォータープルーフ: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">保存性の高さ: 
+日本産の食材使用: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">毛穴の黒ずみや角栓の除去:
+高保湿成分の配合:
+</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,6 +1022,23 @@
     <font>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -931,19 +1067,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1281,455 +1423,614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1125912-46FE-674C-8A88-B784581EE867}">
-  <dimension ref="A1:AV3"/>
+  <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X3" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="16384" width="10.7109375" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:49">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="409.6">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2750</v>
+      </c>
+      <c r="E2" s="3">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3">
+        <v>229350</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1162</v>
+      </c>
+      <c r="K2" s="3">
+        <v>900</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3987984</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1980</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V2" s="3">
+        <v>4670820</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="409.6">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1680</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3">
+        <v>30240</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="J3" s="3">
+        <v>1656</v>
+      </c>
+      <c r="K3" s="3">
+        <v>900</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1896120</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="S3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="T3" s="3">
+        <v>13000</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V3" s="3">
+        <v>22906000</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AD3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="409.6">
+      <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4235</v>
+      </c>
+      <c r="E4" s="3">
         <v>76</v>
       </c>
-      <c r="AG1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="F4" s="3">
+        <v>314246</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1980</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>16122600</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1688</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>6458760</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" ht="409.6">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2750</v>
-      </c>
-      <c r="E2" s="1">
-        <v>86</v>
-      </c>
-      <c r="F2" s="1">
-        <v>229350</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1162</v>
-      </c>
-      <c r="K2" s="1">
-        <v>900</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3987984</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1980</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="V2" s="1">
-        <v>4670820</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AP4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AQ4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" ht="409.6">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1680</v>
-      </c>
-      <c r="E3" s="1">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30240</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1656</v>
-      </c>
-      <c r="K3" s="1">
-        <v>900</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1896120</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="1">
-        <v>13000</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V3" s="1">
-        <v>22906000</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>121</v>
+      <c r="AW4" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="AB3" r:id="rId1" display="https://www.amazon.co.jp/%E3%80%90%E3%81%8A%E8%82%89%E6%83%A3%E8%8F%9C3%E5%80%8B%E3%82%BB%E3%83%83%E3%83%88%E3%80%91-%E3%80%90%E5%B8%B8%E6%B8%A9%E3%83%BB%E9%95%B7%E6%9C%9F%E4%BF%9D%E5%AD%98%E5%8F%AF%E3%80%91uchipac-%E3%83%AC%E3%83%88%E3%83%AB%E3%83%88%E3%81%8A%E3%81%8B%E3%81%9A-%E9%AD%9A%E6%83%A3%E8%8F%9C%EF%BC%88%E3%83%8F%E3%83%B3%E3%83%90%E3%83%BC%E3%82%B0%E3%80%81%E8%B1%9A%E8%A7%92%E7%85%AE%E3%80%81%E7%85%A7%E3%82%8A%E7%84%BC%E3%81%8D%E3%83%81%E3%82%AD%E3%83%B3%EF%BC%89%E3%81%8A%E6%83%A3%E8%8F%9C-%E5%8D%8A%E5%B9%B4%EF%BD%9E1%E5%B9%B4/dp/B0D4LZVHVJ?source=ps-sl-shoppingads-lpcontext&amp;ref_=fplfs&amp;smid=A11FBXDV2I1083&amp;th=1" xr:uid="{27F19162-70CB-D548-B2C2-2C42C646AC85}"/>
     <hyperlink ref="AB2" r:id="rId2" display="https://www.amazon.co.jp/Promenista-BONHEUR-%E3%82%AA%E3%83%BC%E3%83%AB%E3%82%A4%E3%83%B3%E3%83%AF%E3%83%B3-BB%E3%82%AF%E3%83%AA%E3%83%BC%E3%83%A0-%E3%83%97%E3%83%AD%E3%83%A1%E3%83%8B%E3%82%B9%E3%82%BF/dp/B0B1HGCDSP?th=1" xr:uid="{7A6578CF-78A4-9144-8FF7-4D94D7DF4DC1}"/>
+    <hyperlink ref="AB4" r:id="rId3" display="https://www.amazon.co.jp/%E3%82%A2%E3%83%BC%E3%83%AB%E3%82%AA%E3%83%A0-%E3%83%84%E3%83%96%E3%82%A6%E3%82%A9%E3%83%83%E3%82%B7%E3%83%A5-%E7%B4%8460%E5%9B%9E%E5%88%86-%E3%81%A4%E3%81%A3%E3%81%B1%E3%82%89%E3%81%AA%E3%81%84-%E8%82%8C%E3%81%AB%E3%82%84%E3%81%95%E3%81%97%E3%81%84/dp/B08GC2ZCQ5?th=1" xr:uid="{52A5AA1F-8F23-DB43-B342-777D2B474CE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
